--- a/Research/CPU Audio Resource Research.xlsx
+++ b/Research/CPU Audio Resource Research.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DGNapierT7/Internship/Git Repo/Sound_Design_Internship_21_22/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\Git Repo\Sound_Design_Internship_21_22\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9BECCB-40B5-184A-AA9C-38E758353AAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D25E6-EFCF-4BA5-B459-13E2F95B581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="500" windowWidth="28040" windowHeight="17940" activeTab="1" xr2:uid="{0C1B0C95-3926-A343-BFF8-01EB442E589A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{0C1B0C95-3926-A343-BFF8-01EB442E589A}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind Patch" sheetId="1" r:id="rId1"/>
     <sheet name="Jump Patch" sheetId="2" r:id="rId2"/>
     <sheet name="Land Patch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t xml:space="preserve">Game Audio Performance Testing and Optimisation </t>
   </si>
@@ -47,9 +57,6 @@
     <t xml:space="preserve">Gain </t>
   </si>
   <si>
-    <t>Wind Speed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Direction </t>
   </si>
   <si>
@@ -62,9 +69,6 @@
     <t>CPU Consumption</t>
   </si>
   <si>
-    <t>OutPut Type</t>
-  </si>
-  <si>
     <t>Mono</t>
   </si>
   <si>
@@ -98,10 +102,28 @@
     <t>Rev3</t>
   </si>
   <si>
-    <t xml:space="preserve">Rev6 </t>
-  </si>
-  <si>
-    <t>Rev5</t>
+    <t xml:space="preserve">Rev11 </t>
+  </si>
+  <si>
+    <t>Peak CPU Usage %</t>
+  </si>
+  <si>
+    <t>Average CPU Usage %</t>
+  </si>
+  <si>
+    <t>Numbers aquired form Wwise Profiler in real time, numbers provided are guidance only not mathimatical calculations</t>
+  </si>
+  <si>
+    <t>Wind Force</t>
+  </si>
+  <si>
+    <t>Output Type</t>
+  </si>
+  <si>
+    <t>Disclaimer:</t>
+  </si>
+  <si>
+    <t>Performance and percentage consumption will vary depending on the hardware specifications of the host PC.</t>
   </si>
 </sst>
 </file>
@@ -191,21 +213,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -523,134 +544,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55CB1FA-B05E-344B-9E2A-36A175D7C41E}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="F3" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.255</v>
+      </c>
+      <c r="C5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -667,116 +713,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E98B12-6D77-3F4D-8E53-1AAF8F9B1680}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="F3" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,116 +845,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0350EC-492B-4041-8ECB-2796BB61787C}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="F3" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
